--- a/Zeszyt1.xlsx
+++ b/Zeszyt1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ania\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vdi-student\PycharmProjects\pythonProject2\REPO_WSB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{627A6B1D-A9CE-4F42-BC3B-7BF0B2F76D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15990" xr2:uid="{97A20014-B21C-4784-AE22-200F93524A43}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Imię</t>
   </si>
@@ -49,12 +48,18 @@
   </si>
   <si>
     <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Tadeusz</t>
+  </si>
+  <si>
+    <t>Kamiński</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,16 +405,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CCFCFF-C3C1-4598-988C-8D4310E4C50C}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -425,7 +430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -433,12 +438,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
